--- a/file.xlsx
+++ b/file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/htlin/batch-mail/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2838AC79-9B7B-2748-BC55-69FED03936E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABF32AF-F63F-9F45-BA0F-D7F6990AB9AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36780" yWindow="3700" windowWidth="14640" windowHeight="16880" xr2:uid="{97DE2DC9-5627-AA46-B57A-BF5EC8E73B64}"/>
   </bookViews>
@@ -36,21 +36,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>email</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>htlin222@kfsyscc.org</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>臭蜴</t>
+    <t>sammy@kfsyscc.org</t>
+  </si>
+  <si>
+    <t>陳呈峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joyceyu@kfsyscc.org</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Joyce</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -431,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51593E0-67B7-2A47-8B38-5F300BCA55A3}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -447,21 +454,29 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{0BF3108D-B0AE-0243-AD04-9688D21AE204}"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{536F5E4E-0CF0-F94B-8442-64430BFB1930}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/file.xlsx
+++ b/file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10104"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/htlin/batch-mail/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/batch-mail/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABF32AF-F63F-9F45-BA0F-D7F6990AB9AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4192285E-D049-D94F-9753-4C6002A323D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36780" yWindow="3700" windowWidth="14640" windowHeight="16880" xr2:uid="{97DE2DC9-5627-AA46-B57A-BF5EC8E73B64}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{97DE2DC9-5627-AA46-B57A-BF5EC8E73B64}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>email</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,18 +46,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sammy@kfsyscc.org</t>
-  </si>
-  <si>
-    <t>陳呈峰</t>
+    <t>htlin222@kfsyscc.org</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>joyceyu@kfsyscc.org</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Joyce</t>
+    <t>臭蜴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -441,7 +434,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -466,17 +459,12 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A3" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{536F5E4E-0CF0-F94B-8442-64430BFB1930}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{79053CCE-B982-664E-A99F-3048AD92393F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
